--- a/Code/Results/Cases/Case_0_234/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_234/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2522325955282128</v>
+        <v>0.3419041688096627</v>
       </c>
       <c r="D2">
-        <v>0.4245061072749081</v>
+        <v>0.3791904208309234</v>
       </c>
       <c r="E2">
-        <v>0.07190719571853776</v>
+        <v>0.1143888469716536</v>
       </c>
       <c r="F2">
-        <v>6.896322428726933</v>
+        <v>5.241275693317704</v>
       </c>
       <c r="G2">
-        <v>0.0008302946173969456</v>
+        <v>0.002644826841643954</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.507672201837238</v>
+        <v>2.736518024821009</v>
       </c>
       <c r="L2">
-        <v>0.04218846101721141</v>
+        <v>0.07823533792780779</v>
       </c>
       <c r="M2">
-        <v>0.812973852363065</v>
+        <v>0.7778433907156881</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2294902492213708</v>
+        <v>0.3384035684953233</v>
       </c>
       <c r="D3">
-        <v>0.3907698845368657</v>
+        <v>0.3698314667457367</v>
       </c>
       <c r="E3">
-        <v>0.06681181746128928</v>
+        <v>0.1136827103935509</v>
       </c>
       <c r="F3">
-        <v>6.169316641086056</v>
+        <v>5.059717607612498</v>
       </c>
       <c r="G3">
-        <v>0.0008430475233673537</v>
+        <v>0.002652081424053018</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.035014123267672</v>
+        <v>2.658006374373485</v>
       </c>
       <c r="L3">
-        <v>0.04030059656980356</v>
+        <v>0.07799861627761118</v>
       </c>
       <c r="M3">
-        <v>0.711660592248208</v>
+        <v>0.7618770079938457</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2160710764283067</v>
+        <v>0.3364207824093484</v>
       </c>
       <c r="D4">
-        <v>0.3706975742917393</v>
+        <v>0.3641025473780672</v>
       </c>
       <c r="E4">
-        <v>0.06381715657346732</v>
+        <v>0.1132923073987691</v>
       </c>
       <c r="F4">
-        <v>5.736570952260621</v>
+        <v>4.949714129688232</v>
       </c>
       <c r="G4">
-        <v>0.0008510180863232122</v>
+        <v>0.002656761340918131</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.754650673535735</v>
+        <v>2.612415698208508</v>
       </c>
       <c r="L4">
-        <v>0.03919818554844312</v>
+        <v>0.07787153359670995</v>
       </c>
       <c r="M4">
-        <v>0.6516671471691993</v>
+        <v>0.7527096143451359</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2107238557446607</v>
+        <v>0.335654499375309</v>
       </c>
       <c r="D5">
-        <v>0.3626543646573168</v>
+        <v>0.3617717749973082</v>
       </c>
       <c r="E5">
-        <v>0.06262680956802313</v>
+        <v>0.1131440283278735</v>
       </c>
       <c r="F5">
-        <v>5.563163327417669</v>
+        <v>4.905248316768819</v>
       </c>
       <c r="G5">
-        <v>0.0008543058165375727</v>
+        <v>0.002658725397887755</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.642543424238426</v>
+        <v>2.594491320102065</v>
       </c>
       <c r="L5">
-        <v>0.03876172852115189</v>
+        <v>0.07782431972290382</v>
       </c>
       <c r="M5">
-        <v>0.6277046856965072</v>
+        <v>0.7491330284808058</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2098428470622764</v>
+        <v>0.3355297733680374</v>
       </c>
       <c r="D6">
-        <v>0.3613263585485527</v>
+        <v>0.3613849647175016</v>
       </c>
       <c r="E6">
-        <v>0.06243086584651891</v>
+        <v>0.1131200586058192</v>
       </c>
       <c r="F6">
-        <v>5.534533409568695</v>
+        <v>4.897886370903535</v>
       </c>
       <c r="G6">
-        <v>0.0008548542563484323</v>
+        <v>0.002659054974463435</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.624048535800256</v>
+        <v>2.591554400173607</v>
       </c>
       <c r="L6">
-        <v>0.03868998706715132</v>
+        <v>0.07781675554820211</v>
       </c>
       <c r="M6">
-        <v>0.6237531292965102</v>
+        <v>0.7485487335177652</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2159984907310672</v>
+        <v>0.3364102793570822</v>
       </c>
       <c r="D7">
-        <v>0.3705885793432628</v>
+        <v>0.364071099131337</v>
       </c>
       <c r="E7">
-        <v>0.0638009862138631</v>
+        <v>0.1132902639264977</v>
       </c>
       <c r="F7">
-        <v>5.734221020226613</v>
+        <v>4.9491129964903</v>
       </c>
       <c r="G7">
-        <v>0.000851062259783174</v>
+        <v>0.002656787597994404</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.75313049061063</v>
+        <v>2.612171319595916</v>
       </c>
       <c r="L7">
-        <v>0.03919224941295596</v>
+        <v>0.07787087836211626</v>
       </c>
       <c r="M7">
-        <v>0.6513421038042537</v>
+        <v>0.7526607356042447</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2442678793022139</v>
+        <v>0.3406624769759219</v>
       </c>
       <c r="D8">
-        <v>0.4127246488212535</v>
+        <v>0.3759594559080739</v>
       </c>
       <c r="E8">
-        <v>0.07012016260956244</v>
+        <v>0.1141363858959821</v>
       </c>
       <c r="F8">
-        <v>6.642506603193709</v>
+        <v>5.178362973687058</v>
       </c>
       <c r="G8">
-        <v>0.0008346655285661224</v>
+        <v>0.002647281542790264</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.342440860782574</v>
+        <v>2.708902083185706</v>
       </c>
       <c r="L8">
-        <v>0.04152479822151989</v>
+        <v>0.07814991325455978</v>
       </c>
       <c r="M8">
-        <v>0.7775359855002009</v>
+        <v>0.7722057179892445</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3048533446886381</v>
+        <v>0.3503317208017052</v>
       </c>
       <c r="D9">
-        <v>0.5017553895057318</v>
+        <v>0.3994393854256231</v>
       </c>
       <c r="E9">
-        <v>0.08376709712776176</v>
+        <v>0.1161402446474611</v>
       </c>
       <c r="F9">
-        <v>8.55753607751592</v>
+        <v>5.640054207072581</v>
       </c>
       <c r="G9">
-        <v>0.0008033941229382013</v>
+        <v>0.002630419482497055</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.593869820347834</v>
+        <v>2.9195270527415</v>
       </c>
       <c r="L9">
-        <v>0.04662683892091124</v>
+        <v>0.07884299498048364</v>
       </c>
       <c r="M9">
-        <v>1.046317441319061</v>
+        <v>0.8156174382566093</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3538820585715143</v>
+        <v>0.3582606153416066</v>
       </c>
       <c r="D10">
-        <v>0.5732502507150912</v>
+        <v>0.4168320012945514</v>
       </c>
       <c r="E10">
-        <v>0.09487862794651392</v>
+        <v>0.1178258033005299</v>
       </c>
       <c r="F10">
-        <v>10.0888566109204</v>
+        <v>5.987299170909637</v>
       </c>
       <c r="G10">
-        <v>0.0007805745865123913</v>
+        <v>0.002619100804996688</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.601308220520082</v>
+        <v>3.087316499813312</v>
       </c>
       <c r="L10">
-        <v>0.05082618092605529</v>
+        <v>0.07944260414475934</v>
       </c>
       <c r="M10">
-        <v>1.26307731294979</v>
+        <v>0.8506696687500437</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3775576426821772</v>
+        <v>0.3620499260063639</v>
       </c>
       <c r="D11">
-        <v>0.6077160162766688</v>
+        <v>0.4247840028010046</v>
       </c>
       <c r="E11">
-        <v>0.100259734175129</v>
+        <v>0.118639668346578</v>
       </c>
       <c r="F11">
-        <v>10.82461257271046</v>
+        <v>6.147158992942082</v>
       </c>
       <c r="G11">
-        <v>0.0007701189056577041</v>
+        <v>0.002614180772225802</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>6.087219774856635</v>
+        <v>3.166544850635375</v>
       </c>
       <c r="L11">
-        <v>0.05287096307139194</v>
+        <v>0.07973534205719091</v>
       </c>
       <c r="M11">
-        <v>1.367673342882966</v>
+        <v>0.8673149067272874</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3867614917650712</v>
+        <v>0.3635113117697415</v>
       </c>
       <c r="D12">
-        <v>0.6211122681229142</v>
+        <v>0.4278016707648362</v>
       </c>
       <c r="E12">
-        <v>0.1023539025008624</v>
+        <v>0.1189546873177747</v>
       </c>
       <c r="F12">
-        <v>11.11013428067611</v>
+        <v>6.207977602810729</v>
       </c>
       <c r="G12">
-        <v>0.0007661374093040291</v>
+        <v>0.002612350351099249</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.276098744739613</v>
+        <v>3.19696859912375</v>
       </c>
       <c r="L12">
-        <v>0.05366845270884824</v>
+        <v>0.07984909210198055</v>
       </c>
       <c r="M12">
-        <v>1.408333808954922</v>
+        <v>0.8737196955006965</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3847679227160654</v>
+        <v>0.3631953959072689</v>
       </c>
       <c r="D13">
-        <v>0.6182106096356108</v>
+        <v>0.4271514658954345</v>
       </c>
       <c r="E13">
-        <v>0.1019002007674317</v>
+        <v>0.1188865378903863</v>
       </c>
       <c r="F13">
-        <v>11.04831151347048</v>
+        <v>6.19486646445165</v>
       </c>
       <c r="G13">
-        <v>0.0007669960894493535</v>
+        <v>0.002612743114795235</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.235186879517926</v>
+        <v>3.190397469730101</v>
       </c>
       <c r="L13">
-        <v>0.0534955982112173</v>
+        <v>0.07982446477348759</v>
       </c>
       <c r="M13">
-        <v>1.399526551044175</v>
+        <v>0.8723357752541858</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3783098031300085</v>
+        <v>0.3621696235620675</v>
       </c>
       <c r="D14">
-        <v>0.6088107963734899</v>
+        <v>0.4250321357107225</v>
       </c>
       <c r="E14">
-        <v>0.1004308291885927</v>
+        <v>0.1186654480321003</v>
       </c>
       <c r="F14">
-        <v>10.84795587481216</v>
+        <v>6.152156840904183</v>
       </c>
       <c r="G14">
-        <v>0.0007697918635937208</v>
+        <v>0.002614029528671791</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>6.102655361669747</v>
+        <v>3.169039352134234</v>
       </c>
       <c r="L14">
-        <v>0.0529360836098931</v>
+        <v>0.07974464214822419</v>
       </c>
       <c r="M14">
-        <v>1.370996170358282</v>
+        <v>0.8678397907081461</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.374386439263418</v>
+        <v>0.3615447605317286</v>
       </c>
       <c r="D15">
-        <v>0.6031002337175835</v>
+        <v>0.4237348403820249</v>
       </c>
       <c r="E15">
-        <v>0.09953846703914948</v>
+        <v>0.1185309146673603</v>
       </c>
       <c r="F15">
-        <v>10.72617438555881</v>
+        <v>6.126033153577225</v>
       </c>
       <c r="G15">
-        <v>0.0007715010906455916</v>
+        <v>0.002614821744523823</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>6.022141074667502</v>
+        <v>3.156011946184663</v>
       </c>
       <c r="L15">
-        <v>0.05259651079255079</v>
+        <v>0.07969612643921664</v>
       </c>
       <c r="M15">
-        <v>1.353663903537807</v>
+        <v>0.8650991307610241</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3523657337402426</v>
+        <v>0.3580166647247154</v>
       </c>
       <c r="D16">
-        <v>0.5710422020104318</v>
+        <v>0.4163131810062453</v>
       </c>
       <c r="E16">
-        <v>0.094534297347316</v>
+        <v>0.1177735675426916</v>
       </c>
       <c r="F16">
-        <v>10.04166412037225</v>
+        <v>5.976891006011812</v>
       </c>
       <c r="G16">
-        <v>0.0007812554632730687</v>
+        <v>0.002619426927467861</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.570181323218492</v>
+        <v>3.082197492872751</v>
       </c>
       <c r="L16">
-        <v>0.05069556559155686</v>
+        <v>0.07942387701652365</v>
       </c>
       <c r="M16">
-        <v>1.256377643497572</v>
+        <v>0.8495960270680456</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3392348170384309</v>
+        <v>0.3558991712589261</v>
       </c>
       <c r="D17">
-        <v>0.5519155064423558</v>
+        <v>0.4117709513040495</v>
       </c>
       <c r="E17">
-        <v>0.09155417543150435</v>
+        <v>0.1173210596585896</v>
       </c>
       <c r="F17">
-        <v>9.632593550612995</v>
+        <v>5.885890223463861</v>
       </c>
       <c r="G17">
-        <v>0.0007872128905541397</v>
+        <v>0.002622310521792045</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.300576175283652</v>
+        <v>3.037660766039721</v>
       </c>
       <c r="L17">
-        <v>0.0495663278863141</v>
+        <v>0.07926199354563934</v>
       </c>
       <c r="M17">
-        <v>1.198353311714669</v>
+        <v>0.8402652891950453</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3318085116280258</v>
+        <v>0.3546984010948506</v>
       </c>
       <c r="D18">
-        <v>0.5410925268009237</v>
+        <v>0.4091621069620714</v>
       </c>
       <c r="E18">
-        <v>0.08987013930663679</v>
+        <v>0.1170652186864878</v>
       </c>
       <c r="F18">
-        <v>9.400901697948569</v>
+        <v>5.83372683628852</v>
       </c>
       <c r="G18">
-        <v>0.0007906331944079634</v>
+        <v>0.002623990646744329</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.148042281936739</v>
+        <v>3.012317100434984</v>
       </c>
       <c r="L18">
-        <v>0.04892920720145355</v>
+        <v>0.07917076087854369</v>
       </c>
       <c r="M18">
-        <v>1.165529607370047</v>
+        <v>0.8349643043825097</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3293146599690431</v>
+        <v>0.3542947807866881</v>
       </c>
       <c r="D19">
-        <v>0.5374568807542346</v>
+        <v>0.4082794169670763</v>
       </c>
       <c r="E19">
-        <v>0.08930485625061735</v>
+        <v>0.1169793545092261</v>
       </c>
       <c r="F19">
-        <v>9.323037561867835</v>
+        <v>5.816095440460145</v>
       </c>
       <c r="G19">
-        <v>0.0007917904857184265</v>
+        <v>0.002624563217479049</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.09680806402929</v>
+        <v>3.003782864582831</v>
       </c>
       <c r="L19">
-        <v>0.04871551231464366</v>
+        <v>0.07914019294924302</v>
       </c>
       <c r="M19">
-        <v>1.154505428058542</v>
+        <v>0.8331807557939044</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3406192886433246</v>
+        <v>0.3561228048594103</v>
       </c>
       <c r="D20">
-        <v>0.5539327035055805</v>
+        <v>0.4122540889968604</v>
       </c>
       <c r="E20">
-        <v>0.09186824162965124</v>
+        <v>0.1173687710659266</v>
       </c>
       <c r="F20">
-        <v>9.675759372605768</v>
+        <v>5.895558929407997</v>
       </c>
       <c r="G20">
-        <v>0.0007865794340397312</v>
+        <v>0.002622001328549008</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.329007734728805</v>
+        <v>3.042373521862601</v>
       </c>
       <c r="L20">
-        <v>0.04968522990233382</v>
+        <v>0.07927903173236572</v>
       </c>
       <c r="M20">
-        <v>1.204471889555833</v>
+        <v>0.8412517443064615</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3801998665130952</v>
+        <v>0.3624701979298379</v>
       </c>
       <c r="D21">
-        <v>0.6115617969363143</v>
+        <v>0.4256544548566126</v>
       </c>
       <c r="E21">
-        <v>0.1008608007383813</v>
+        <v>0.1187302017936744</v>
       </c>
       <c r="F21">
-        <v>10.90660615756201</v>
+        <v>6.164693923261268</v>
       </c>
       <c r="G21">
-        <v>0.0007689713814373889</v>
+        <v>0.002613650792175905</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6.141442567119043</v>
+        <v>3.175301266459087</v>
       </c>
       <c r="L21">
-        <v>0.05309976292172536</v>
+        <v>0.07976800917849403</v>
       </c>
       <c r="M21">
-        <v>1.379345944420407</v>
+        <v>0.8691576051219556</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.407483835012016</v>
+        <v>0.366772901673329</v>
       </c>
       <c r="D22">
-        <v>0.6512773290804432</v>
+        <v>0.4344500893988368</v>
       </c>
       <c r="E22">
-        <v>0.1070730851451032</v>
+        <v>0.1196597883044639</v>
       </c>
       <c r="F22">
-        <v>11.75210607460212</v>
+        <v>6.342244691628537</v>
       </c>
       <c r="G22">
-        <v>0.0007573271160712744</v>
+        <v>0.002608383662142361</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.701408820499466</v>
+        <v>3.264637451409783</v>
       </c>
       <c r="L22">
-        <v>0.05546887039901804</v>
+        <v>0.08010447932791465</v>
       </c>
       <c r="M22">
-        <v>1.499891399383671</v>
+        <v>0.8879883649318145</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.39277626438124</v>
+        <v>0.3644622717517052</v>
       </c>
       <c r="D23">
-        <v>0.6298670268127466</v>
+        <v>0.4297520206940533</v>
       </c>
       <c r="E23">
-        <v>0.1037230903206847</v>
+        <v>0.1191599894869668</v>
       </c>
       <c r="F23">
-        <v>11.29658947124449</v>
+        <v>6.247327519515011</v>
       </c>
       <c r="G23">
-        <v>0.0007635588106613034</v>
+        <v>0.002611177478971366</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.399536564693562</v>
+        <v>3.216730355553977</v>
       </c>
       <c r="L23">
-        <v>0.05419035288642249</v>
+        <v>0.07992334471813933</v>
       </c>
       <c r="M23">
-        <v>1.434906809662721</v>
+        <v>0.8778834764183188</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3399929894129343</v>
+        <v>0.3560216484043508</v>
       </c>
       <c r="D24">
-        <v>0.5530201939435528</v>
+        <v>0.4120356545723212</v>
       </c>
       <c r="E24">
-        <v>0.09172616180516968</v>
+        <v>0.1173471873123084</v>
       </c>
       <c r="F24">
-        <v>9.656233331927098</v>
+        <v>5.891187228019987</v>
       </c>
       <c r="G24">
-        <v>0.0007868658335817053</v>
+        <v>0.002622141045356515</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.316146211972239</v>
+        <v>3.040242072062256</v>
       </c>
       <c r="L24">
-        <v>0.04963143691186644</v>
+        <v>0.07927132305018603</v>
       </c>
       <c r="M24">
-        <v>1.201704027126155</v>
+        <v>0.8408055706066051</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2877840659249529</v>
+        <v>0.3475720834848772</v>
       </c>
       <c r="D25">
-        <v>0.4767822622185776</v>
+        <v>0.3930654491684891</v>
       </c>
       <c r="E25">
-        <v>0.07991111020635344</v>
+        <v>0.1155609248740355</v>
       </c>
       <c r="F25">
-        <v>8.021165130624212</v>
+        <v>5.513789613939281</v>
       </c>
       <c r="G25">
-        <v>0.0008117949694685</v>
+        <v>0.002634792163977298</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.242330079035241</v>
+        <v>2.860277640194624</v>
       </c>
       <c r="L25">
-        <v>0.0451780769184893</v>
+        <v>0.0786397299044026</v>
       </c>
       <c r="M25">
-        <v>0.9707402147950859</v>
+        <v>0.8033232237378769</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_234/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_234/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3419041688096627</v>
+        <v>0.2522325955276443</v>
       </c>
       <c r="D2">
-        <v>0.3791904208309234</v>
+        <v>0.4245061072748229</v>
       </c>
       <c r="E2">
-        <v>0.1143888469716536</v>
+        <v>0.07190719571855908</v>
       </c>
       <c r="F2">
-        <v>5.241275693317704</v>
+        <v>6.896322428727018</v>
       </c>
       <c r="G2">
-        <v>0.002644826841643954</v>
+        <v>0.0008302946173810834</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.736518024821009</v>
+        <v>3.507672201837181</v>
       </c>
       <c r="L2">
-        <v>0.07823533792780779</v>
+        <v>0.04218846101735707</v>
       </c>
       <c r="M2">
-        <v>0.7778433907156881</v>
+        <v>0.8129738523630792</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3384035684953233</v>
+        <v>0.2294902492213566</v>
       </c>
       <c r="D3">
-        <v>0.3698314667457367</v>
+        <v>0.3907698845368941</v>
       </c>
       <c r="E3">
-        <v>0.1136827103935509</v>
+        <v>0.06681181746129283</v>
       </c>
       <c r="F3">
-        <v>5.059717607612498</v>
+        <v>6.169316641086056</v>
       </c>
       <c r="G3">
-        <v>0.002652081424053018</v>
+        <v>0.0008430475233691267</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.658006374373485</v>
+        <v>3.035014123267672</v>
       </c>
       <c r="L3">
-        <v>0.07799861627761118</v>
+        <v>0.04030059656995633</v>
       </c>
       <c r="M3">
-        <v>0.7618770079938457</v>
+        <v>0.7116605922482151</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3364207824093484</v>
+        <v>0.2160710764275393</v>
       </c>
       <c r="D4">
-        <v>0.3641025473780672</v>
+        <v>0.3706975742914977</v>
       </c>
       <c r="E4">
-        <v>0.1132923073987691</v>
+        <v>0.06381715657353837</v>
       </c>
       <c r="F4">
-        <v>4.949714129688232</v>
+        <v>5.736570952260621</v>
       </c>
       <c r="G4">
-        <v>0.002656761340918131</v>
+        <v>0.0008510180864388974</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.612415698208508</v>
+        <v>2.754650673535821</v>
       </c>
       <c r="L4">
-        <v>0.07787153359670995</v>
+        <v>0.03919818554831878</v>
       </c>
       <c r="M4">
-        <v>0.7527096143451359</v>
+        <v>0.6516671471691922</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.335654499375309</v>
+        <v>0.2107238557445186</v>
       </c>
       <c r="D5">
-        <v>0.3617717749973082</v>
+        <v>0.3626543646573026</v>
       </c>
       <c r="E5">
-        <v>0.1131440283278735</v>
+        <v>0.06262680956801958</v>
       </c>
       <c r="F5">
-        <v>4.905248316768819</v>
+        <v>5.563163327417698</v>
       </c>
       <c r="G5">
-        <v>0.002658725397887755</v>
+        <v>0.0008543058164474246</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.594491320102065</v>
+        <v>2.642543424238397</v>
       </c>
       <c r="L5">
-        <v>0.07782431972290382</v>
+        <v>0.03876172852123361</v>
       </c>
       <c r="M5">
-        <v>0.7491330284808058</v>
+        <v>0.6277046856965285</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3355297733680374</v>
+        <v>0.2098428470620632</v>
       </c>
       <c r="D6">
-        <v>0.3613849647175016</v>
+        <v>0.3613263585483395</v>
       </c>
       <c r="E6">
-        <v>0.1131200586058192</v>
+        <v>0.06243086584655089</v>
       </c>
       <c r="F6">
-        <v>4.897886370903535</v>
+        <v>5.534533409568724</v>
       </c>
       <c r="G6">
-        <v>0.002659054974463435</v>
+        <v>0.0008548542563828492</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.591554400173607</v>
+        <v>2.624048535800426</v>
       </c>
       <c r="L6">
-        <v>0.07781675554820211</v>
+        <v>0.03868998706711579</v>
       </c>
       <c r="M6">
-        <v>0.7485487335177652</v>
+        <v>0.6237531292965173</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3364102793570822</v>
+        <v>0.2159984907313657</v>
       </c>
       <c r="D7">
-        <v>0.364071099131337</v>
+        <v>0.3705885793431634</v>
       </c>
       <c r="E7">
-        <v>0.1132902639264977</v>
+        <v>0.06380098621382757</v>
       </c>
       <c r="F7">
-        <v>4.9491129964903</v>
+        <v>5.734221020226556</v>
       </c>
       <c r="G7">
-        <v>0.002656787597994404</v>
+        <v>0.0008510622598854945</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.612171319595916</v>
+        <v>2.753130490610488</v>
       </c>
       <c r="L7">
-        <v>0.07787087836211626</v>
+        <v>0.03919224941308386</v>
       </c>
       <c r="M7">
-        <v>0.7526607356042447</v>
+        <v>0.6513421038042182</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3406624769759219</v>
+        <v>0.2442678793026545</v>
       </c>
       <c r="D8">
-        <v>0.3759594559080739</v>
+        <v>0.4127246488211966</v>
       </c>
       <c r="E8">
-        <v>0.1141363858959821</v>
+        <v>0.07012016260955889</v>
       </c>
       <c r="F8">
-        <v>5.178362973687058</v>
+        <v>6.642506603193681</v>
       </c>
       <c r="G8">
-        <v>0.002647281542790264</v>
+        <v>0.000834665528681326</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.708902083185706</v>
+        <v>3.342440860782574</v>
       </c>
       <c r="L8">
-        <v>0.07814991325455978</v>
+        <v>0.04152479822117527</v>
       </c>
       <c r="M8">
-        <v>0.7722057179892445</v>
+        <v>0.7775359855002009</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3503317208017052</v>
+        <v>0.3048533446890929</v>
       </c>
       <c r="D9">
-        <v>0.3994393854256231</v>
+        <v>0.5017553895061155</v>
       </c>
       <c r="E9">
-        <v>0.1161402446474611</v>
+        <v>0.08376709712780084</v>
       </c>
       <c r="F9">
-        <v>5.640054207072581</v>
+        <v>8.557536077516033</v>
       </c>
       <c r="G9">
-        <v>0.002630419482497055</v>
+        <v>0.0008033941229267397</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.9195270527415</v>
+        <v>4.593869820347663</v>
       </c>
       <c r="L9">
-        <v>0.07884299498048364</v>
+        <v>0.04662683892064479</v>
       </c>
       <c r="M9">
-        <v>0.8156174382566093</v>
+        <v>1.046317441319047</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3582606153416066</v>
+        <v>0.3538820585704912</v>
       </c>
       <c r="D10">
-        <v>0.4168320012945514</v>
+        <v>0.5732502507152901</v>
       </c>
       <c r="E10">
-        <v>0.1178258033005299</v>
+        <v>0.09487862794656721</v>
       </c>
       <c r="F10">
-        <v>5.987299170909637</v>
+        <v>10.0888566109204</v>
       </c>
       <c r="G10">
-        <v>0.002619100804996688</v>
+        <v>0.0007805745865092452</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.087316499813312</v>
+        <v>5.601308220520252</v>
       </c>
       <c r="L10">
-        <v>0.07944260414475934</v>
+        <v>0.05082618092601621</v>
       </c>
       <c r="M10">
-        <v>0.8506696687500437</v>
+        <v>1.263077312949832</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3620499260063639</v>
+        <v>0.3775576426826319</v>
       </c>
       <c r="D11">
-        <v>0.4247840028010046</v>
+        <v>0.6077160162764699</v>
       </c>
       <c r="E11">
-        <v>0.118639668346578</v>
+        <v>0.1002597341751965</v>
       </c>
       <c r="F11">
-        <v>6.147158992942082</v>
+        <v>10.82461257271052</v>
       </c>
       <c r="G11">
-        <v>0.002614180772225802</v>
+        <v>0.0007701189055475677</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.166544850635375</v>
+        <v>6.087219774856635</v>
       </c>
       <c r="L11">
-        <v>0.07973534205719091</v>
+        <v>0.05287096307128536</v>
       </c>
       <c r="M11">
-        <v>0.8673149067272874</v>
+        <v>1.367673342882952</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3635113117697415</v>
+        <v>0.3867614917650144</v>
       </c>
       <c r="D12">
-        <v>0.4278016707648362</v>
+        <v>0.6211122681226868</v>
       </c>
       <c r="E12">
-        <v>0.1189546873177747</v>
+        <v>0.1023539025008553</v>
       </c>
       <c r="F12">
-        <v>6.207977602810729</v>
+        <v>11.11013428067628</v>
       </c>
       <c r="G12">
-        <v>0.002612350351099249</v>
+        <v>0.0007661374092949538</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.19696859912375</v>
+        <v>6.276098744739841</v>
       </c>
       <c r="L12">
-        <v>0.07984909210198055</v>
+        <v>0.05366845270878429</v>
       </c>
       <c r="M12">
-        <v>0.8737196955006965</v>
+        <v>1.408333808954936</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3631953959072689</v>
+        <v>0.3847679227159801</v>
       </c>
       <c r="D13">
-        <v>0.4271514658954345</v>
+        <v>0.6182106096355255</v>
       </c>
       <c r="E13">
-        <v>0.1188865378903863</v>
+        <v>0.1019002007674459</v>
       </c>
       <c r="F13">
-        <v>6.19486646445165</v>
+        <v>11.04831151347059</v>
       </c>
       <c r="G13">
-        <v>0.002612743114795235</v>
+        <v>0.0007669960893187395</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.190397469730101</v>
+        <v>6.23518687951821</v>
       </c>
       <c r="L13">
-        <v>0.07982446477348759</v>
+        <v>0.0534955982115406</v>
       </c>
       <c r="M13">
-        <v>0.8723357752541858</v>
+        <v>1.399526551044175</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3621696235620675</v>
+        <v>0.3783098031299801</v>
       </c>
       <c r="D14">
-        <v>0.4250321357107225</v>
+        <v>0.6088107963739162</v>
       </c>
       <c r="E14">
-        <v>0.1186654480321003</v>
+        <v>0.1004308291886034</v>
       </c>
       <c r="F14">
-        <v>6.152156840904183</v>
+        <v>10.84795587481221</v>
       </c>
       <c r="G14">
-        <v>0.002614029528671791</v>
+        <v>0.0007697918634647661</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.169039352134234</v>
+        <v>6.102655361669861</v>
       </c>
       <c r="L14">
-        <v>0.07974464214822419</v>
+        <v>0.05293608360986823</v>
       </c>
       <c r="M14">
-        <v>0.8678397907081461</v>
+        <v>1.370996170358254</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3615447605317286</v>
+        <v>0.3743864392633327</v>
       </c>
       <c r="D15">
-        <v>0.4237348403820249</v>
+        <v>0.6031002337175266</v>
       </c>
       <c r="E15">
-        <v>0.1185309146673603</v>
+        <v>0.09953846703912461</v>
       </c>
       <c r="F15">
-        <v>6.126033153577225</v>
+        <v>10.72617438555875</v>
       </c>
       <c r="G15">
-        <v>0.002614821744523823</v>
+        <v>0.0007715010903997612</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.156011946184663</v>
+        <v>6.022141074667445</v>
       </c>
       <c r="L15">
-        <v>0.07969612643921664</v>
+        <v>0.05259651079242644</v>
       </c>
       <c r="M15">
-        <v>0.8650991307610241</v>
+        <v>1.353663903537822</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3580166647247154</v>
+        <v>0.3523657337397879</v>
       </c>
       <c r="D16">
-        <v>0.4163131810062453</v>
+        <v>0.5710422020102897</v>
       </c>
       <c r="E16">
-        <v>0.1177735675426916</v>
+        <v>0.09453429734723429</v>
       </c>
       <c r="F16">
-        <v>5.976891006011812</v>
+        <v>10.04166412037216</v>
       </c>
       <c r="G16">
-        <v>0.002619426927467861</v>
+        <v>0.0007812554632869598</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.082197492872751</v>
+        <v>5.570181323218435</v>
       </c>
       <c r="L16">
-        <v>0.07942387701652365</v>
+        <v>0.05069556559137212</v>
       </c>
       <c r="M16">
-        <v>0.8495960270680456</v>
+        <v>1.256377643497572</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3558991712589261</v>
+        <v>0.3392348170383173</v>
       </c>
       <c r="D17">
-        <v>0.4117709513040495</v>
+        <v>0.5519155064422705</v>
       </c>
       <c r="E17">
-        <v>0.1173210596585896</v>
+        <v>0.09155417543151501</v>
       </c>
       <c r="F17">
-        <v>5.885890223463861</v>
+        <v>9.632593550613194</v>
       </c>
       <c r="G17">
-        <v>0.002622310521792045</v>
+        <v>0.0007872128906474865</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.037660766039721</v>
+        <v>5.300576175283425</v>
       </c>
       <c r="L17">
-        <v>0.07926199354563934</v>
+        <v>0.04956632788621107</v>
       </c>
       <c r="M17">
-        <v>0.8402652891950453</v>
+        <v>1.198353311714627</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3546984010948506</v>
+        <v>0.3318085116280542</v>
       </c>
       <c r="D18">
-        <v>0.4091621069620714</v>
+        <v>0.5410925268010942</v>
       </c>
       <c r="E18">
-        <v>0.1170652186864878</v>
+        <v>0.08987013930657284</v>
       </c>
       <c r="F18">
-        <v>5.83372683628852</v>
+        <v>9.400901697948655</v>
       </c>
       <c r="G18">
-        <v>0.002623990646744329</v>
+        <v>0.0007906331943983158</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.012317100434984</v>
+        <v>5.148042281936682</v>
       </c>
       <c r="L18">
-        <v>0.07917076087854369</v>
+        <v>0.04892920720139671</v>
       </c>
       <c r="M18">
-        <v>0.8349643043825097</v>
+        <v>1.165529607370047</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3542947807866881</v>
+        <v>0.3293146599690431</v>
       </c>
       <c r="D19">
-        <v>0.4082794169670763</v>
+        <v>0.5374568807540072</v>
       </c>
       <c r="E19">
-        <v>0.1169793545092261</v>
+        <v>0.08930485625060314</v>
       </c>
       <c r="F19">
-        <v>5.816095440460145</v>
+        <v>9.323037561867892</v>
       </c>
       <c r="G19">
-        <v>0.002624563217479049</v>
+        <v>0.0007917904854916768</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.003782864582831</v>
+        <v>5.096808064029403</v>
       </c>
       <c r="L19">
-        <v>0.07914019294924302</v>
+        <v>0.04871551231448379</v>
       </c>
       <c r="M19">
-        <v>0.8331807557939044</v>
+        <v>1.154505428058542</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3561228048594103</v>
+        <v>0.3406192886438077</v>
       </c>
       <c r="D20">
-        <v>0.4122540889968604</v>
+        <v>0.5539327035060069</v>
       </c>
       <c r="E20">
-        <v>0.1173687710659266</v>
+        <v>0.09186824162958374</v>
       </c>
       <c r="F20">
-        <v>5.895558929407997</v>
+        <v>9.675759372605796</v>
       </c>
       <c r="G20">
-        <v>0.002622001328549008</v>
+        <v>0.0007865794340249992</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.042373521862601</v>
+        <v>5.329007734728577</v>
       </c>
       <c r="L20">
-        <v>0.07927903173236572</v>
+        <v>0.04968522990251145</v>
       </c>
       <c r="M20">
-        <v>0.8412517443064615</v>
+        <v>1.204471889555833</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3624701979298379</v>
+        <v>0.3801998665126121</v>
       </c>
       <c r="D21">
-        <v>0.4256544548566126</v>
+        <v>0.6115617969367975</v>
       </c>
       <c r="E21">
-        <v>0.1187302017936744</v>
+        <v>0.1008608007382605</v>
       </c>
       <c r="F21">
-        <v>6.164693923261268</v>
+        <v>10.90660615756201</v>
       </c>
       <c r="G21">
-        <v>0.002613650792175905</v>
+        <v>0.0007689713816915688</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.175301266459087</v>
+        <v>6.141442567119327</v>
       </c>
       <c r="L21">
-        <v>0.07976800917849403</v>
+        <v>0.05309976292183194</v>
       </c>
       <c r="M21">
-        <v>0.8691576051219556</v>
+        <v>1.379345944420407</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.366772901673329</v>
+        <v>0.4074838350119876</v>
       </c>
       <c r="D22">
-        <v>0.4344500893988368</v>
+        <v>0.6512773290804148</v>
       </c>
       <c r="E22">
-        <v>0.1196597883044639</v>
+        <v>0.1070730851450179</v>
       </c>
       <c r="F22">
-        <v>6.342244691628537</v>
+        <v>11.75210607460212</v>
       </c>
       <c r="G22">
-        <v>0.002608383662142361</v>
+        <v>0.0007573271160849878</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.264637451409783</v>
+        <v>6.701408820499637</v>
       </c>
       <c r="L22">
-        <v>0.08010447932791465</v>
+        <v>0.05546887039926673</v>
       </c>
       <c r="M22">
-        <v>0.8879883649318145</v>
+        <v>1.499891399383699</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3644622717517052</v>
+        <v>0.3927762643820074</v>
       </c>
       <c r="D23">
-        <v>0.4297520206940533</v>
+        <v>0.6298670268127466</v>
       </c>
       <c r="E23">
-        <v>0.1191599894869668</v>
+        <v>0.1037230903206066</v>
       </c>
       <c r="F23">
-        <v>6.247327519515011</v>
+        <v>11.29658947124477</v>
       </c>
       <c r="G23">
-        <v>0.002611177478971366</v>
+        <v>0.0007635588108638736</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.216730355553977</v>
+        <v>6.399536564693449</v>
       </c>
       <c r="L23">
-        <v>0.07992334471813933</v>
+        <v>0.05419035288634078</v>
       </c>
       <c r="M23">
-        <v>0.8778834764183188</v>
+        <v>1.434906809662778</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3560216484043508</v>
+        <v>0.3399929894134175</v>
       </c>
       <c r="D24">
-        <v>0.4120356545723212</v>
+        <v>0.5530201939433539</v>
       </c>
       <c r="E24">
-        <v>0.1173471873123084</v>
+        <v>0.09172616180516968</v>
       </c>
       <c r="F24">
-        <v>5.891187228019987</v>
+        <v>9.656233331927126</v>
       </c>
       <c r="G24">
-        <v>0.002622141045356515</v>
+        <v>0.0007868658335830946</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.040242072062256</v>
+        <v>5.316146211972239</v>
       </c>
       <c r="L24">
-        <v>0.07927132305018603</v>
+        <v>0.04963143691189842</v>
       </c>
       <c r="M24">
-        <v>0.8408055706066051</v>
+        <v>1.201704027126155</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3475720834848772</v>
+        <v>0.2877840659249102</v>
       </c>
       <c r="D25">
-        <v>0.3930654491684891</v>
+        <v>0.4767822622185065</v>
       </c>
       <c r="E25">
-        <v>0.1155609248740355</v>
+        <v>0.07991111020632147</v>
       </c>
       <c r="F25">
-        <v>5.513789613939281</v>
+        <v>8.021165130624325</v>
       </c>
       <c r="G25">
-        <v>0.002634792163977298</v>
+        <v>0.0008117949692317925</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.860277640194624</v>
+        <v>4.242330079035128</v>
       </c>
       <c r="L25">
-        <v>0.0786397299044026</v>
+        <v>0.04517807691855324</v>
       </c>
       <c r="M25">
-        <v>0.8033232237378769</v>
+        <v>0.9707402147950646</v>
       </c>
       <c r="N25">
         <v>0</v>
